--- a/3. Final/Document/[KD1]6조_WBS_업빛투.xlsx
+++ b/3. Final/Document/[KD1]6조_WBS_업빛투.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khl06\Desktop\Mr.GentleKim\21KDT\00. 21KDT-Project\3. Final\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D37DE8-9262-46DA-923F-DB5032FA92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6BD32D-CA90-40D8-8683-17FE29AAF915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,6 +1026,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,6 +1054,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,37 +1077,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,7 +1313,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="72"/>
@@ -1323,7 +1323,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="U1" s="86"/>
+      <c r="U1" s="75"/>
       <c r="V1" s="72"/>
       <c r="W1" s="72"/>
       <c r="X1" s="72"/>
@@ -1344,7 +1344,7 @@
       <c r="AM1" s="3"/>
     </row>
     <row r="2" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="72"/>
@@ -1393,91 +1393,91 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="89" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
     </row>
     <row r="4" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="82" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82" t="s">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="84" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="81"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="86"/>
       <c r="W4" s="71" t="s">
         <v>16</v>
       </c>
@@ -1505,13 +1505,13 @@
       <c r="AM4" s="73"/>
     </row>
     <row r="5" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="79"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="73"/>
       <c r="I5" s="6" t="s">
         <v>20</v>
@@ -1608,14 +1608,14 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="13">
         <v>44433</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1769,7 +1769,7 @@
       <c r="AM7" s="36"/>
     </row>
     <row r="8" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="18" t="s">
         <v>53</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="AM8" s="36"/>
     </row>
     <row r="9" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="AM9" s="36"/>
     </row>
     <row r="10" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="AM10" s="42"/>
     </row>
     <row r="11" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="84" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="43" t="s">
@@ -1981,7 +1981,7 @@
       <c r="AM11" s="36"/>
     </row>
     <row r="12" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="48" t="s">
         <v>61</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="AM12" s="36"/>
     </row>
     <row r="13" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="48" t="s">
         <v>62</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="AM13" s="36"/>
     </row>
     <row r="14" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="51" t="s">
         <v>63</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="AM14" s="36"/>
     </row>
     <row r="15" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="52" t="s">
         <v>64</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="AM15" s="36"/>
     </row>
     <row r="16" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="52" t="s">
         <v>66</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="AM16" s="36"/>
     </row>
     <row r="17" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="52" t="s">
         <v>67</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="AM17" s="36"/>
     </row>
     <row r="18" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="51" t="s">
         <v>68</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="AM18" s="36"/>
     </row>
     <row r="19" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="52" t="s">
         <v>69</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="AM19" s="36"/>
     </row>
     <row r="20" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="53" t="s">
         <v>72</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="AM20" s="36"/>
     </row>
     <row r="21" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="53" t="s">
         <v>73</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="AM21" s="36"/>
     </row>
     <row r="22" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="52" t="s">
         <v>74</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="AM22" s="36"/>
     </row>
     <row r="23" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="52" t="s">
         <v>75</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="AM23" s="36"/>
     </row>
     <row r="24" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="52" t="s">
         <v>76</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="AM24" s="36"/>
     </row>
     <row r="25" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="52" t="s">
         <v>77</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="AM25" s="36"/>
     </row>
     <row r="26" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="51" t="s">
         <v>78</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="AM26" s="36"/>
     </row>
     <row r="27" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="52" t="s">
         <v>79</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="AM27" s="36"/>
     </row>
     <row r="28" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="52" t="s">
         <v>80</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="AM28" s="36"/>
     </row>
     <row r="29" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="52" t="s">
         <v>83</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="AM29" s="36"/>
     </row>
     <row r="30" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="52" t="s">
         <v>84</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="AM30" s="36"/>
     </row>
     <row r="31" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="51" t="s">
         <v>85</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="AM31" s="36"/>
     </row>
     <row r="32" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="52" t="s">
         <v>86</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="AM32" s="36"/>
     </row>
     <row r="33" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="52" t="s">
         <v>87</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="AM33" s="36"/>
     </row>
     <row r="34" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="52" t="s">
         <v>88</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="AM34" s="36"/>
     </row>
     <row r="35" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="52" t="s">
         <v>89</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="AM35" s="36"/>
     </row>
     <row r="36" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="52" t="s">
         <v>90</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="AM36" s="36"/>
     </row>
     <row r="37" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="52" t="s">
         <v>91</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="AM37" s="36"/>
     </row>
     <row r="38" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="52" t="s">
         <v>92</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="AM38" s="36"/>
     </row>
     <row r="39" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="52" t="s">
         <v>87</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="AM39" s="36"/>
     </row>
     <row r="40" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="52" t="s">
         <v>88</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="AM40" s="36"/>
     </row>
     <row r="41" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="52" t="s">
         <v>75</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="AM41" s="36"/>
     </row>
     <row r="42" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="52" t="s">
         <v>88</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="AM42" s="36"/>
     </row>
     <row r="43" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="43" t="s">
         <v>94</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="AM43" s="36"/>
     </row>
     <row r="44" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="52" t="s">
         <v>86</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="AM44" s="36"/>
     </row>
     <row r="45" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="52" t="s">
         <v>95</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="AM45" s="36"/>
     </row>
     <row r="46" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="52" t="s">
         <v>96</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="AM46" s="36"/>
     </row>
     <row r="47" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="52" t="s">
         <v>97</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="AM47" s="36"/>
     </row>
     <row r="48" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="52" t="s">
         <v>99</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="AM48" s="36"/>
     </row>
     <row r="49" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="52" t="s">
         <v>92</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="AM49" s="36"/>
     </row>
     <row r="50" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="52" t="s">
         <v>95</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="AM50" s="36"/>
     </row>
     <row r="51" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="52" t="s">
         <v>99</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="AM51" s="36"/>
     </row>
     <row r="52" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
+      <c r="A52" s="82"/>
       <c r="B52" s="52" t="s">
         <v>75</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="AM52" s="36"/>
     </row>
     <row r="53" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
+      <c r="A53" s="82"/>
       <c r="B53" s="52" t="s">
         <v>100</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="AM53" s="36"/>
     </row>
     <row r="54" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
+      <c r="A54" s="82"/>
       <c r="B54" s="52" t="s">
         <v>101</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="AM54" s="36"/>
     </row>
     <row r="55" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
+      <c r="A55" s="82"/>
       <c r="B55" s="52" t="s">
         <v>102</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="AM55" s="36"/>
     </row>
     <row r="56" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="52" t="s">
         <v>103</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="AM56" s="36"/>
     </row>
     <row r="57" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
+      <c r="A57" s="82"/>
       <c r="B57" s="52" t="s">
         <v>104</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="AM57" s="36"/>
     </row>
     <row r="58" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
+      <c r="A58" s="82"/>
       <c r="B58" s="52" t="s">
         <v>105</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="AM58" s="36"/>
     </row>
     <row r="59" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
+      <c r="A59" s="82"/>
       <c r="B59" s="43" t="s">
         <v>106</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="AM59" s="36"/>
     </row>
     <row r="60" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
+      <c r="A60" s="82"/>
       <c r="B60" s="52" t="s">
         <v>107</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="AM60" s="36"/>
     </row>
     <row r="61" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="52" t="s">
         <v>109</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="AM61" s="36"/>
     </row>
     <row r="62" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="75"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="52" t="s">
         <v>111</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="AM62" s="36"/>
     </row>
     <row r="63" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="75"/>
+      <c r="A63" s="82"/>
       <c r="B63" s="52" t="s">
         <v>112</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="AM63" s="36"/>
     </row>
     <row r="64" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="75"/>
+      <c r="A64" s="82"/>
       <c r="B64" s="51" t="s">
         <v>113</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="AM64" s="36"/>
     </row>
     <row r="65" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="75"/>
+      <c r="A65" s="82"/>
       <c r="B65" s="52" t="s">
         <v>114</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="AM65" s="36"/>
     </row>
     <row r="66" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
+      <c r="A66" s="82"/>
       <c r="B66" s="52" t="s">
         <v>115</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="AM66" s="36"/>
     </row>
     <row r="67" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="75"/>
+      <c r="A67" s="82"/>
       <c r="B67" s="65" t="s">
         <v>116</v>
       </c>
@@ -5026,7 +5026,7 @@
       <c r="AM67" s="36"/>
     </row>
     <row r="68" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="75"/>
+      <c r="A68" s="82"/>
       <c r="B68" s="52" t="s">
         <v>117</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="AM68" s="36"/>
     </row>
     <row r="69" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="75"/>
+      <c r="A69" s="82"/>
       <c r="B69" s="43" t="s">
         <v>118</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="AM69" s="36"/>
     </row>
     <row r="70" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="75"/>
+      <c r="A70" s="82"/>
       <c r="B70" s="52" t="s">
         <v>119</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="AM70" s="36"/>
     </row>
     <row r="71" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="75"/>
+      <c r="A71" s="82"/>
       <c r="B71" s="52" t="s">
         <v>120</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="AM71" s="36"/>
     </row>
     <row r="72" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="76"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="52" t="s">
         <v>121</v>
       </c>
@@ -5292,48 +5292,48 @@
       <c r="AM72" s="68"/>
     </row>
     <row r="73" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D73" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="74" t="s">
+      <c r="F73" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="77" t="s">
+      <c r="G73" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="78"/>
-      <c r="I73" s="82" t="s">
+      <c r="H73" s="88"/>
+      <c r="I73" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="82" t="s">
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="81"/>
-      <c r="Q73" s="84" t="s">
+      <c r="N73" s="78"/>
+      <c r="O73" s="78"/>
+      <c r="P73" s="86"/>
+      <c r="Q73" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="R73" s="83"/>
-      <c r="S73" s="83"/>
-      <c r="T73" s="83"/>
-      <c r="U73" s="83"/>
-      <c r="V73" s="81"/>
+      <c r="R73" s="78"/>
+      <c r="S73" s="78"/>
+      <c r="T73" s="78"/>
+      <c r="U73" s="78"/>
+      <c r="V73" s="86"/>
       <c r="W73" s="71" t="s">
         <v>16</v>
       </c>
@@ -5361,13 +5361,13 @@
       <c r="AM73" s="73"/>
     </row>
     <row r="74" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="75"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="79"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="89"/>
       <c r="H74" s="73"/>
       <c r="I74" s="6" t="s">
         <v>20</v>
@@ -5464,14 +5464,14 @@
       </c>
     </row>
     <row r="75" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="76"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="81"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="86"/>
       <c r="I75" s="13">
         <v>44433</v>
       </c>
@@ -25455,6 +25455,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="W73:AA73"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:H75"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q73:V73"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="AI4:AM4"/>
     <mergeCell ref="AD73:AH73"/>
     <mergeCell ref="AI73:AM73"/>
     <mergeCell ref="A1:E1"/>
@@ -25471,25 +25490,6 @@
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
     <mergeCell ref="C73:C75"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="AI4:AM4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="W73:AA73"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:H75"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:V73"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
